--- a/7.통합구현/인터페이스명세서_황은지.xlsx
+++ b/7.통합구현/인터페이스명세서_황은지.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.5601"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="10080" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="10080" tabRatio="500" firstSheet="3" activeTab="4"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="인터페이스 목록" sheetId="1" r:id="rId4"/>
@@ -18,13 +18,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="82">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="80">
   <x:si>
     <x:t>성공시(201)
 응답 데이터 없음
 실패시(400)
 { 
   "errorMessage" : "등록되지 않은 게시글 입니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+  "subject" : "(수정)글제목",
+  "content" : "(수정)글내용"
 }</x:t>
   </x:si>
   <x:si>
@@ -41,6 +47,78 @@
   "status" : "Bad_Request",
   "errorMessage" : "게시글 조회에 실패했습니다.."
 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOARD-WEB-003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOARD-WEB-005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LocalDateTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOARD-WEB-004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>errorMessage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOARD-WEB-001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/board/list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성공시(201)
+응답 데이터 없음
+실패시(400)
+{ 
+  "status" : "Bad_Request",
+  "errorMessage" : "게시글 등록에 실패했습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/board/write</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 작성(접근권한 : X)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 삭제(접근권한 : X)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 수정(접근권한 : X)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 조회(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 목록(접근권한 : X)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 조회(접근권한 : X)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>errorMessage(예시)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 삭제(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 작성(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 수정(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 목록(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/board/update/{게시글번호}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/board/delete/{게시글번호}</x:t>
   </x:si>
   <x:si>
     <x:t>성공시(200)
@@ -67,304 +145,160 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>{
-  "subject" : "(수정)글제목",
-  "content" : "(수정)글내용"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성공시(201)
-응답 데이터 없음
-실패시(400)
-{ 
-  "status" : "Bad_Request",
-  "errorMessage" : "게시글 등록에 실패했습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/board/update/{게시글번호}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/board/delete/{게시글번호}</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>L</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ocalDateTime</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>게시글 작성(접근권한 : X)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 목록(접근권한 : X)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 조회(접근권한 : X)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 삭제(접근권한 : X)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 수정(접근권한 : X)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 조회(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>errorMessage(예시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 수정(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 삭제(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 작성(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/board/write</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 목록(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
     <x:t>GET / application/json</x:t>
   </x:si>
   <x:si>
+    <x:t>POST / application/json</x:t>
+  </x:si>
+  <x:si>
     <x:t>/api/board/get/{게시글번호}</x:t>
   </x:si>
   <x:si>
     <x:t>POST / application/json</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>POST</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> / application/json</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>BOARD-WEB-001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOARD-WEB-003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOARD-WEB-004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOARD-WEB-005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/board/list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>errorMessage</x:t>
+    <x:t>web</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>샘플</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>형태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인터페이스 ID</x:t>
   </x:si>
   <x:si>
     <x:t>&lt;RESPONSE&gt;</x:t>
   </x:si>
   <x:si>
+    <x:t>조회 실패 에러메세지</x:t>
+  </x:si>
+  <x:si>
     <x:t>&lt;REQUEST&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>인터페이스 ID</x:t>
+    <x:t>조회 성공일 경우</x:t>
   </x:si>
   <x:si>
     <x:t>Column설명</x:t>
   </x:si>
   <x:si>
-    <x:t>조회 성공일 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>조회 실패</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 에러메세지</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
     <x:t>전송방식</x:t>
   </x:si>
   <x:si>
     <x:t>Column명</x:t>
   </x:si>
   <x:si>
+    <x:t>modDt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오류일경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에러메세지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regDt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답상태메시지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에러메시지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Long</x:t>
+  </x:si>
+  <x:si>
+    <x:t>status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>METHOD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Long</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
     <x:t>회원인증</x:t>
   </x:si>
   <x:si>
-    <x:t>status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답상태메시지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오류일경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regDt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에러메시지</x:t>
-  </x:si>
-  <x:si>
     <x:t>조회 성공 시</x:t>
   </x:si>
   <x:si>
-    <x:t>게시글 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에러메세지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>subject</x:t>
-  </x:si>
-  <x:si>
-    <x:t>modDt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>METHOD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Long</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>S</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>tring</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">요청 </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>URL</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>L</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ong</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>s</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>tring</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>{
-  "subject" :＂글제목",
-  "content" : "글내용"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>web</x:t>
+    <x:t>string</x:t>
   </x:si>
   <x:si>
     <x:t>성공시(200)
@@ -376,70 +310,10 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>샘플</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>형태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>G</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="11"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ET</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>게시글 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 내용</x:t>
+    <x:t>{
+  "subject" :＂글제목",
+  "content" : "글내용"
+}</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -570,7 +444,7 @@
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
       <x:bottom>
@@ -587,7 +461,7 @@
       <x:top>
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom>
+      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -598,10 +472,10 @@
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -821,19 +695,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -890,26 +751,39 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -948,7 +822,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -969,7 +842,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -990,7 +862,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1021,7 +892,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1052,7 +922,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1106,7 +975,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1141,7 +1009,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1176,7 +1043,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1221,7 +1087,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1265,7 +1130,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1629,130 +1493,130 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D1" s="11" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G1" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7" customHeight="1">
       <x:c r="A2" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="17" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C2" s="17" t="s">
-        <x:v>63</x:v>
+      <x:c r="B2" s="27" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C2" s="27" t="s">
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D2" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F2" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G2" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="18"/>
-      <x:c r="C3" s="17"/>
+      <x:c r="B3" s="28"/>
+      <x:c r="C3" s="27"/>
       <x:c r="D3" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F3" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G3" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B4" s="18"/>
-      <x:c r="C4" s="17"/>
+      <x:c r="B4" s="28"/>
+      <x:c r="C4" s="27"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F4" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G4" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B5" s="18"/>
-      <x:c r="C5" s="17"/>
+      <x:c r="B5" s="28"/>
+      <x:c r="C5" s="27"/>
       <x:c r="D5" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F5" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G5" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="4">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B6" s="19"/>
-      <x:c r="C6" s="17"/>
+      <x:c r="B6" s="29"/>
+      <x:c r="C6" s="27"/>
       <x:c r="D6" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F6" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G6" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="4"/>
       <x:c r="B7" s="4"/>
-      <x:c r="C7" s="28"/>
+      <x:c r="C7" s="17"/>
       <x:c r="D7" s="3"/>
       <x:c r="E7" s="4"/>
       <x:c r="F7" s="3"/>
@@ -1761,7 +1625,7 @@
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="4"/>
       <x:c r="B8" s="4"/>
-      <x:c r="C8" s="28"/>
+      <x:c r="C8" s="17"/>
       <x:c r="D8" s="3"/>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="3"/>
@@ -1770,7 +1634,7 @@
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="4"/>
       <x:c r="B9" s="4"/>
-      <x:c r="C9" s="28"/>
+      <x:c r="C9" s="17"/>
       <x:c r="D9" s="3"/>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="3"/>
@@ -1779,7 +1643,7 @@
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="4"/>
       <x:c r="B10" s="4"/>
-      <x:c r="C10" s="28"/>
+      <x:c r="C10" s="17"/>
       <x:c r="D10" s="3"/>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="3"/>
@@ -1788,7 +1652,7 @@
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="4"/>
       <x:c r="B11" s="4"/>
-      <x:c r="C11" s="28"/>
+      <x:c r="C11" s="17"/>
       <x:c r="D11" s="3"/>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="3"/>
@@ -1797,7 +1661,7 @@
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="4"/>
       <x:c r="B12" s="4"/>
-      <x:c r="C12" s="28"/>
+      <x:c r="C12" s="17"/>
       <x:c r="D12" s="3"/>
       <x:c r="E12" s="4"/>
       <x:c r="F12" s="3"/>
@@ -1806,7 +1670,7 @@
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="4"/>
       <x:c r="B13" s="4"/>
-      <x:c r="C13" s="28"/>
+      <x:c r="C13" s="17"/>
       <x:c r="D13" s="3"/>
       <x:c r="E13" s="4"/>
       <x:c r="F13" s="3"/>
@@ -1815,7 +1679,7 @@
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="4"/>
       <x:c r="B14" s="4"/>
-      <x:c r="C14" s="28"/>
+      <x:c r="C14" s="17"/>
       <x:c r="D14" s="3"/>
       <x:c r="E14" s="4"/>
       <x:c r="F14" s="3"/>
@@ -1824,7 +1688,7 @@
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="4"/>
       <x:c r="B15" s="4"/>
-      <x:c r="C15" s="28"/>
+      <x:c r="C15" s="17"/>
       <x:c r="D15" s="3"/>
       <x:c r="E15" s="4"/>
       <x:c r="F15" s="3"/>
@@ -1833,7 +1697,7 @@
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="4"/>
       <x:c r="B16" s="4"/>
-      <x:c r="C16" s="29"/>
+      <x:c r="C16" s="18"/>
       <x:c r="D16" s="3"/>
       <x:c r="E16" s="4"/>
       <x:c r="F16" s="3"/>
@@ -1844,7 +1708,7 @@
     <x:mergeCell ref="B2:B6"/>
     <x:mergeCell ref="C2:C6"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1854,8 +1718,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:F20"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="B10" activeCellId="0" sqref="B10:F10"/>
+    <x:sheetView topLeftCell="A10" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="C14" activeCellId="0" sqref="C14:C14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -1869,67 +1733,67 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="23.25" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B1" s="20" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C1" s="21"/>
-      <x:c r="D1" s="21"/>
-      <x:c r="E1" s="21"/>
-      <x:c r="F1" s="21"/>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B1" s="19" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C1" s="20"/>
+      <x:c r="D1" s="20"/>
+      <x:c r="E1" s="20"/>
+      <x:c r="F1" s="20"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D2" s="20" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E2" s="21"/>
-      <x:c r="F2" s="21"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D2" s="19" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B3" s="22" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C3" s="23"/>
-      <x:c r="D3" s="23"/>
-      <x:c r="E3" s="23"/>
-      <x:c r="F3" s="24"/>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B3" s="21" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C3" s="22"/>
+      <x:c r="D3" s="22"/>
+      <x:c r="E3" s="22"/>
+      <x:c r="F3" s="23"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -1937,16 +1801,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F6" s="9"/>
     </x:row>
@@ -1958,13 +1822,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F7" s="9"/>
     </x:row>
@@ -1986,39 +1850,39 @@
     </x:row>
     <x:row r="10" spans="1:6" ht="153" customHeight="1">
       <x:c r="A10" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B10" s="25" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C10" s="23"/>
-      <x:c r="D10" s="23"/>
-      <x:c r="E10" s="23"/>
-      <x:c r="F10" s="24"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B10" s="24" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C10" s="22"/>
+      <x:c r="D10" s="22"/>
+      <x:c r="E10" s="22"/>
+      <x:c r="F10" s="23"/>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" ht="22.5" customHeight="1">
       <x:c r="A13" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" ht="20.25" customHeight="1">
@@ -2026,19 +1890,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B14" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F14" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6" ht="20.25" customHeight="1">
@@ -2046,19 +1910,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E15" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F15" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6" ht="20.25" customHeight="1">
@@ -2095,15 +1959,15 @@
     </x:row>
     <x:row r="20" spans="1:6" ht="126.75" customHeight="1">
       <x:c r="A20" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B20" s="25" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C20" s="26"/>
-      <x:c r="D20" s="26"/>
-      <x:c r="E20" s="26"/>
-      <x:c r="F20" s="27"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B20" s="24" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C20" s="25"/>
+      <x:c r="D20" s="25"/>
+      <x:c r="E20" s="25"/>
+      <x:c r="F20" s="26"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -2113,7 +1977,7 @@
     <x:mergeCell ref="B10:F10"/>
     <x:mergeCell ref="B20:F20"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2123,8 +1987,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:F20"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A7" zoomScale="65" zoomScaleNormal="97" workbookViewId="0">
-      <x:selection activeCell="B20" activeCellId="0" sqref="B20:F20"/>
+    <x:sheetView topLeftCell="A13" zoomScale="65" zoomScaleNormal="97" workbookViewId="0">
+      <x:selection activeCell="J20" activeCellId="0" sqref="J20:J20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -2138,67 +2002,67 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="23.25" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B1" s="20" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C1" s="21"/>
-      <x:c r="D1" s="21"/>
-      <x:c r="E1" s="21"/>
-      <x:c r="F1" s="21"/>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B1" s="19" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C1" s="20"/>
+      <x:c r="D1" s="20"/>
+      <x:c r="E1" s="20"/>
+      <x:c r="F1" s="20"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D2" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E2" s="21"/>
-      <x:c r="F2" s="21"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D2" s="19" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B3" s="22" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C3" s="23"/>
-      <x:c r="D3" s="23"/>
-      <x:c r="E3" s="23"/>
-      <x:c r="F3" s="24"/>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B3" s="21" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C3" s="22"/>
+      <x:c r="D3" s="22"/>
+      <x:c r="E3" s="22"/>
+      <x:c r="F3" s="23"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -2235,37 +2099,37 @@
     </x:row>
     <x:row r="10" spans="1:6" ht="153" customHeight="1">
       <x:c r="A10" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B10" s="25"/>
-      <x:c r="C10" s="23"/>
-      <x:c r="D10" s="23"/>
-      <x:c r="E10" s="23"/>
-      <x:c r="F10" s="24"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B10" s="24"/>
+      <x:c r="C10" s="22"/>
+      <x:c r="D10" s="22"/>
+      <x:c r="E10" s="22"/>
+      <x:c r="F10" s="23"/>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" ht="22.5" customHeight="1">
       <x:c r="A13" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" ht="20.25" customHeight="1">
@@ -2273,19 +2137,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B14" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D14" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F14" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6" ht="20.25" customHeight="1">
@@ -2293,19 +2157,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D15" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E15" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F15" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6" ht="20.25" customHeight="1">
@@ -2313,19 +2177,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>42</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F16" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6" ht="20.25" customHeight="1">
@@ -2333,19 +2197,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B17" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D17" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E17" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F17" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6" ht="20.25" customHeight="1">
@@ -2353,19 +2217,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B18" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C18" s="5" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D18" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E18" s="6" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D18" s="6" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E18" s="6" t="s">
-        <x:v>77</x:v>
-      </x:c>
       <x:c r="F18" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6" ht="20.25" customHeight="1">
@@ -2376,29 +2240,29 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D19" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E19" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F19" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6" ht="315" customHeight="1">
       <x:c r="A20" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B20" s="25" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C20" s="26"/>
-      <x:c r="D20" s="26"/>
-      <x:c r="E20" s="26"/>
-      <x:c r="F20" s="27"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B20" s="24" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C20" s="25"/>
+      <x:c r="D20" s="25"/>
+      <x:c r="E20" s="25"/>
+      <x:c r="F20" s="26"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -2408,7 +2272,7 @@
     <x:mergeCell ref="B10:F10"/>
     <x:mergeCell ref="B20:F20"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2433,67 +2297,67 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="23.25" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B1" s="20" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C1" s="21"/>
-      <x:c r="D1" s="21"/>
-      <x:c r="E1" s="21"/>
-      <x:c r="F1" s="21"/>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B1" s="19" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="20"/>
+      <x:c r="D1" s="20"/>
+      <x:c r="E1" s="20"/>
+      <x:c r="F1" s="20"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D2" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E2" s="21"/>
-      <x:c r="F2" s="21"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D2" s="19" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B3" s="22" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C3" s="23"/>
-      <x:c r="D3" s="23"/>
-      <x:c r="E3" s="23"/>
-      <x:c r="F3" s="24"/>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B3" s="21" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C3" s="22"/>
+      <x:c r="D3" s="22"/>
+      <x:c r="E3" s="22"/>
+      <x:c r="F3" s="23"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -2530,37 +2394,37 @@
     </x:row>
     <x:row r="10" spans="1:6" ht="153" customHeight="1">
       <x:c r="A10" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B10" s="25"/>
-      <x:c r="C10" s="23"/>
-      <x:c r="D10" s="23"/>
-      <x:c r="E10" s="23"/>
-      <x:c r="F10" s="24"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B10" s="24"/>
+      <x:c r="C10" s="22"/>
+      <x:c r="D10" s="22"/>
+      <x:c r="E10" s="22"/>
+      <x:c r="F10" s="23"/>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" ht="22.5" customHeight="1">
       <x:c r="A13" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" ht="20.25" customHeight="1">
@@ -2568,19 +2432,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F14" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6" ht="20.25" customHeight="1">
@@ -2588,19 +2452,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D15" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E15" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F15" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6" ht="20.25" customHeight="1">
@@ -2608,19 +2472,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D16" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F16" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6" ht="20.25" customHeight="1">
@@ -2631,16 +2495,16 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E17" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F17" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6" ht="20.25" customHeight="1">
@@ -2661,15 +2525,15 @@
     </x:row>
     <x:row r="20" spans="1:6" ht="187.5" customHeight="1">
       <x:c r="A20" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B20" s="25" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C20" s="26"/>
-      <x:c r="D20" s="26"/>
-      <x:c r="E20" s="26"/>
-      <x:c r="F20" s="27"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B20" s="24" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C20" s="25"/>
+      <x:c r="D20" s="25"/>
+      <x:c r="E20" s="25"/>
+      <x:c r="F20" s="26"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -2679,7 +2543,7 @@
     <x:mergeCell ref="B10:F10"/>
     <x:mergeCell ref="B20:F20"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2689,8 +2553,8 @@
   <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="A1:F20"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <x:selection activeCell="C16" activeCellId="0" sqref="C16:C16"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <x:selection activeCell="D27" activeCellId="0" sqref="D27:D27"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -2704,67 +2568,67 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="23.25" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B1" s="20" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C1" s="21"/>
-      <x:c r="D1" s="21"/>
-      <x:c r="E1" s="21"/>
-      <x:c r="F1" s="21"/>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B1" s="19" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C1" s="20"/>
+      <x:c r="D1" s="20"/>
+      <x:c r="E1" s="20"/>
+      <x:c r="F1" s="20"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D2" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E2" s="21"/>
-      <x:c r="F2" s="21"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D2" s="19" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B3" s="22" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C3" s="23"/>
-      <x:c r="D3" s="23"/>
-      <x:c r="E3" s="23"/>
-      <x:c r="F3" s="24"/>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B3" s="21" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C3" s="22"/>
+      <x:c r="D3" s="22"/>
+      <x:c r="E3" s="22"/>
+      <x:c r="F3" s="23"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -2801,37 +2665,37 @@
     </x:row>
     <x:row r="10" spans="1:6" ht="153" customHeight="1">
       <x:c r="A10" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B10" s="25"/>
-      <x:c r="C10" s="23"/>
-      <x:c r="D10" s="23"/>
-      <x:c r="E10" s="23"/>
-      <x:c r="F10" s="24"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B10" s="24"/>
+      <x:c r="C10" s="22"/>
+      <x:c r="D10" s="22"/>
+      <x:c r="E10" s="22"/>
+      <x:c r="F10" s="23"/>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" ht="22.5" customHeight="1">
       <x:c r="A13" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" ht="20.25" customHeight="1">
@@ -2839,19 +2703,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F14" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6" ht="20.25" customHeight="1">
@@ -2896,15 +2760,15 @@
     </x:row>
     <x:row r="20" spans="1:6" ht="105" customHeight="1">
       <x:c r="A20" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B20" s="25" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C20" s="26"/>
-      <x:c r="D20" s="26"/>
-      <x:c r="E20" s="26"/>
-      <x:c r="F20" s="27"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B20" s="24" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C20" s="25"/>
+      <x:c r="D20" s="25"/>
+      <x:c r="E20" s="25"/>
+      <x:c r="F20" s="26"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -2914,7 +2778,7 @@
     <x:mergeCell ref="B10:F10"/>
     <x:mergeCell ref="B20:F20"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2924,8 +2788,8 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:F20"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A4" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="C15" activeCellId="0" sqref="C15:C15"/>
+    <x:sheetView topLeftCell="A1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="B10" activeCellId="0" sqref="B10:F10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -2939,67 +2803,67 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="23.25" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B1" s="20" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C1" s="21"/>
-      <x:c r="D1" s="21"/>
-      <x:c r="E1" s="21"/>
-      <x:c r="F1" s="21"/>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B1" s="19" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C1" s="20"/>
+      <x:c r="D1" s="20"/>
+      <x:c r="E1" s="20"/>
+      <x:c r="F1" s="20"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D2" s="20" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E2" s="21"/>
-      <x:c r="F2" s="21"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D2" s="19" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E2" s="20"/>
+      <x:c r="F2" s="20"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B3" s="22" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="23"/>
-      <x:c r="D3" s="23"/>
-      <x:c r="E3" s="23"/>
-      <x:c r="F3" s="24"/>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B3" s="21" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C3" s="22"/>
+      <x:c r="D3" s="22"/>
+      <x:c r="E3" s="22"/>
+      <x:c r="F3" s="23"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -3007,16 +2871,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C6" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F6" s="9"/>
     </x:row>
@@ -3028,13 +2892,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C7" s="8" t="s">
-        <x:v>81</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>69</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F7" s="9"/>
     </x:row>
@@ -3056,39 +2920,39 @@
     </x:row>
     <x:row r="10" spans="1:6" ht="153" customHeight="1">
       <x:c r="A10" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B10" s="25" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C10" s="23"/>
-      <x:c r="D10" s="23"/>
-      <x:c r="E10" s="23"/>
-      <x:c r="F10" s="24"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B10" s="24" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C10" s="22"/>
+      <x:c r="D10" s="22"/>
+      <x:c r="E10" s="22"/>
+      <x:c r="F10" s="23"/>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" ht="22.5" customHeight="1">
       <x:c r="A13" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" ht="20.25" customHeight="1">
@@ -3096,19 +2960,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E14" s="6" t="s">
-        <x:v>69</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F14" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6" ht="20.25" customHeight="1">
@@ -3153,15 +3017,15 @@
     </x:row>
     <x:row r="20" spans="1:6" ht="105" customHeight="1">
       <x:c r="A20" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B20" s="25" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B20" s="24" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C20" s="26"/>
-      <x:c r="D20" s="26"/>
-      <x:c r="E20" s="26"/>
-      <x:c r="F20" s="27"/>
+      <x:c r="C20" s="25"/>
+      <x:c r="D20" s="25"/>
+      <x:c r="E20" s="25"/>
+      <x:c r="F20" s="26"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -3171,7 +3035,7 @@
     <x:mergeCell ref="B10:F10"/>
     <x:mergeCell ref="B20:F20"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/7.통합구현/인터페이스명세서_황은지.xlsx
+++ b/7.통합구현/인터페이스명세서_황은지.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.5601"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="10080" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="10080" tabRatio="500" firstSheet="3" activeTab="5"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="인터페이스 목록" sheetId="1" r:id="rId4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="80">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="78">
   <x:si>
     <x:t>성공시(201)
 응답 데이터 없음
@@ -32,42 +32,6 @@
   "subject" : "(수정)글제목",
   "content" : "(수정)글내용"
 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성공시(200)
-{
-    "regDt": "2023-06-07T20:57:33.267995",
-    "modDt": null,
-    "id": 202,
-    "subject": "글 제목",
-    "content": "글 내용"
-}
-실패시(400)
-{ 
-  "status" : "Bad_Request",
-  "errorMessage" : "게시글 조회에 실패했습니다.."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOARD-WEB-003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOARD-WEB-005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LocalDateTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOARD-WEB-004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>errorMessage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOARD-WEB-001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/board/list</x:t>
   </x:si>
   <x:si>
     <x:t>성공시(201)
@@ -77,48 +41,6 @@
   "status" : "Bad_Request",
   "errorMessage" : "게시글 등록에 실패했습니다."
 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/board/write</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 작성(접근권한 : X)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 삭제(접근권한 : X)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 수정(접근권한 : X)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 조회(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 목록(접근권한 : X)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 조회(접근권한 : X)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>errorMessage(예시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 삭제(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 작성(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 수정(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 목록(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/board/update/{게시글번호}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/board/delete/{게시글번호}</x:t>
   </x:si>
   <x:si>
     <x:t>성공시(200)
@@ -145,129 +67,195 @@
 }</x:t>
   </x:si>
   <x:si>
+    <x:t>/api/board/update/{게시글번호}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/board/delete/{게시글번호}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 목록(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 조회(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/board/write</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 삭제(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 작성(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 수정(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
     <x:t>GET / application/json</x:t>
   </x:si>
   <x:si>
+    <x:t>/api/board/get/{게시글번호}</x:t>
+  </x:si>
+  <x:si>
     <x:t>POST / application/json</x:t>
   </x:si>
   <x:si>
-    <x:t>/api/board/get/{게시글번호}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST / application/json</x:t>
+    <x:t>그룹</x:t>
   </x:si>
   <x:si>
     <x:t>web</x:t>
   </x:si>
   <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
     <x:t>설명</x:t>
   </x:si>
   <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그룹</x:t>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL</x:t>
   </x:si>
   <x:si>
     <x:t>구분</x:t>
   </x:si>
   <x:si>
+    <x:t>샘플</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
     <x:t>기능</x:t>
   </x:si>
   <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>샘플</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
     <x:t>형태</x:t>
   </x:si>
   <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
     <x:t>GET</x:t>
   </x:si>
   <x:si>
+    <x:t>BOARD-WEB-001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOARD-WEB-003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOARD-WEB-004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LocalDateTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/board/list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOARD-WEB-005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>errorMessage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 삭제</x:t>
+  </x:si>
+  <x:si>
     <x:t>인터페이스 ID</x:t>
   </x:si>
   <x:si>
+    <x:t>조회 실패 에러메세지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column설명</x:t>
+  </x:si>
+  <x:si>
     <x:t>&lt;RESPONSE&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>조회 실패 에러메세지</x:t>
-  </x:si>
-  <x:si>
     <x:t>&lt;REQUEST&gt;</x:t>
   </x:si>
   <x:si>
     <x:t>조회 성공일 경우</x:t>
   </x:si>
   <x:si>
-    <x:t>Column설명</x:t>
+    <x:t>&lt;REQUEST&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오류일경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에러메세지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regDt</x:t>
   </x:si>
   <x:si>
     <x:t>전송방식</x:t>
   </x:si>
   <x:si>
+    <x:t>응답상태메시지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에러메시지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>modDt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 수정</x:t>
+  </x:si>
+  <x:si>
     <x:t>Column명</x:t>
   </x:si>
   <x:si>
-    <x:t>modDt</x:t>
-  </x:si>
-  <x:si>
     <x:t>content</x:t>
   </x:si>
   <x:si>
     <x:t>작성일자</x:t>
   </x:si>
   <x:si>
-    <x:t>오류일경우</x:t>
-  </x:si>
-  <x:si>
     <x:t>요청 URL</x:t>
   </x:si>
   <x:si>
-    <x:t>POST</x:t>
-  </x:si>
-  <x:si>
     <x:t>게시글 내용</x:t>
   </x:si>
   <x:si>
-    <x:t>에러메세지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regDt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답상태메시지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에러메시지</x:t>
-  </x:si>
-  <x:si>
     <x:t>게시글 번호</x:t>
   </x:si>
   <x:si>
+    <x:t>조회 성공 시</x:t>
+  </x:si>
+  <x:si>
     <x:t>String</x:t>
   </x:si>
   <x:si>
+    <x:t>subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원인증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 제목</x:t>
+  </x:si>
+  <x:si>
     <x:t>Long</x:t>
   </x:si>
   <x:si>
@@ -277,28 +265,16 @@
     <x:t>METHOD</x:t>
   </x:si>
   <x:si>
-    <x:t>subject</x:t>
-  </x:si>
-  <x:si>
     <x:t>수정일자</x:t>
   </x:si>
   <x:si>
-    <x:t>게시글 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Long</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원인증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회 성공 시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>string</x:t>
+    <x:t>접근권한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+  "subject" :＂글제목",
+  "content" : "글내용"
+}</x:t>
   </x:si>
   <x:si>
     <x:t>성공시(200)
@@ -310,10 +286,28 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>{
-  "subject" :＂글제목",
-  "content" : "글내용"
+    <x:t>성공시(200)
+{
+    "regDt": "2023-06-07T20:57:33.267995",
+    "modDt": null,
+    "id": 202,
+    "subject": "글 제목",
+    "content": "글 내용"
+}
+실패시(400)
+{ 
+  "status" : "Bad_Request",
+  "errorMessage" : "게시글 조회에 실패했습니다.."
 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>errorMessage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 작성</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -399,6 +393,34 @@
       <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
       <x:right>
         <x:color indexed="64"/>
       </x:right>
@@ -431,34 +453,6 @@
         <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
@@ -527,7 +521,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="30">
+  <x:cellXfs count="25">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -634,40 +628,50 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
@@ -695,58 +699,13 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -764,26 +723,26 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -822,6 +781,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -842,6 +802,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -862,6 +823,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -892,6 +854,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -922,6 +885,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -975,6 +939,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1009,6 +974,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1043,6 +1009,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1087,6 +1054,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1130,6 +1098,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1476,10 +1445,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:G16"/>
+  <x:dimension ref="A1:H16"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="90" zoomScaleNormal="135" workbookViewId="0">
-      <x:selection activeCell="F9" activeCellId="0" sqref="F9:F9"/>
+      <x:selection activeCell="D9" activeCellId="0" sqref="D9:D9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -1491,132 +1460,150 @@
     <x:col min="7" max="7" width="9.88671875" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:8">
       <x:c r="A1" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D1" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G1" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7" customHeight="1">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8" customHeight="1">
       <x:c r="A2" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="27" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C2" s="27" t="s">
-        <x:v>30</x:v>
+      <x:c r="B2" s="22" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C2" s="22" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D2" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E2" s="4" t="s">
-        <x:v>59</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F2" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G2" s="6" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:7">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H2" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
       <x:c r="A3" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="28"/>
-      <x:c r="C3" s="27"/>
+      <x:c r="B3" s="23"/>
+      <x:c r="C3" s="22"/>
       <x:c r="D3" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E3" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F3" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G3" s="6" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H3" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
       <x:c r="A4" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B4" s="28"/>
-      <x:c r="C4" s="27"/>
+      <x:c r="B4" s="23"/>
+      <x:c r="C4" s="22"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F4" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G4" s="6" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H4" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
       <x:c r="A5" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B5" s="28"/>
-      <x:c r="C5" s="27"/>
+      <x:c r="B5" s="23"/>
+      <x:c r="C5" s="22"/>
       <x:c r="D5" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
-        <x:v>45</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F5" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G5" s="6" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H5" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
       <x:c r="A6" s="4">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B6" s="29"/>
-      <x:c r="C6" s="27"/>
+      <x:c r="B6" s="24"/>
+      <x:c r="C6" s="22"/>
       <x:c r="D6" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
-        <x:v>59</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F6" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G6" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H6" s="6" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="4"/>
       <x:c r="B7" s="4"/>
-      <x:c r="C7" s="17"/>
+      <x:c r="C7" s="12"/>
       <x:c r="D7" s="3"/>
       <x:c r="E7" s="4"/>
       <x:c r="F7" s="3"/>
@@ -1625,7 +1612,7 @@
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="4"/>
       <x:c r="B8" s="4"/>
-      <x:c r="C8" s="17"/>
+      <x:c r="C8" s="12"/>
       <x:c r="D8" s="3"/>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="3"/>
@@ -1634,7 +1621,7 @@
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="4"/>
       <x:c r="B9" s="4"/>
-      <x:c r="C9" s="17"/>
+      <x:c r="C9" s="12"/>
       <x:c r="D9" s="3"/>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="3"/>
@@ -1643,7 +1630,7 @@
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="4"/>
       <x:c r="B10" s="4"/>
-      <x:c r="C10" s="17"/>
+      <x:c r="C10" s="12"/>
       <x:c r="D10" s="3"/>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="3"/>
@@ -1652,7 +1639,7 @@
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="4"/>
       <x:c r="B11" s="4"/>
-      <x:c r="C11" s="17"/>
+      <x:c r="C11" s="12"/>
       <x:c r="D11" s="3"/>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="3"/>
@@ -1661,7 +1648,7 @@
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="4"/>
       <x:c r="B12" s="4"/>
-      <x:c r="C12" s="17"/>
+      <x:c r="C12" s="12"/>
       <x:c r="D12" s="3"/>
       <x:c r="E12" s="4"/>
       <x:c r="F12" s="3"/>
@@ -1670,7 +1657,7 @@
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="4"/>
       <x:c r="B13" s="4"/>
-      <x:c r="C13" s="17"/>
+      <x:c r="C13" s="12"/>
       <x:c r="D13" s="3"/>
       <x:c r="E13" s="4"/>
       <x:c r="F13" s="3"/>
@@ -1679,7 +1666,7 @@
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="4"/>
       <x:c r="B14" s="4"/>
-      <x:c r="C14" s="17"/>
+      <x:c r="C14" s="12"/>
       <x:c r="D14" s="3"/>
       <x:c r="E14" s="4"/>
       <x:c r="F14" s="3"/>
@@ -1688,7 +1675,7 @@
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="4"/>
       <x:c r="B15" s="4"/>
-      <x:c r="C15" s="17"/>
+      <x:c r="C15" s="12"/>
       <x:c r="D15" s="3"/>
       <x:c r="E15" s="4"/>
       <x:c r="F15" s="3"/>
@@ -1697,7 +1684,7 @@
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="4"/>
       <x:c r="B16" s="4"/>
-      <x:c r="C16" s="18"/>
+      <x:c r="C16" s="13"/>
       <x:c r="D16" s="3"/>
       <x:c r="E16" s="4"/>
       <x:c r="F16" s="3"/>
@@ -1708,7 +1695,7 @@
     <x:mergeCell ref="B2:B6"/>
     <x:mergeCell ref="C2:C6"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1716,10 +1703,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:F20"/>
+  <x:dimension ref="A1:F14"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A10" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="C14" activeCellId="0" sqref="C14:C14"/>
+    <x:sheetView topLeftCell="A1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="E12" activeCellId="0" sqref="E12:E13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -1733,67 +1720,67 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="23.25" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B1" s="19" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C1" s="20"/>
-      <x:c r="D1" s="20"/>
-      <x:c r="E1" s="20"/>
-      <x:c r="F1" s="20"/>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B1" s="14" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C1" s="15"/>
+      <x:c r="D1" s="15"/>
+      <x:c r="E1" s="15"/>
+      <x:c r="F1" s="15"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D2" s="19" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E2" s="20"/>
-      <x:c r="F2" s="20"/>
+      <x:c r="D2" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="15"/>
+      <x:c r="F2" s="15"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B3" s="21" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C3" s="22"/>
-      <x:c r="D3" s="22"/>
-      <x:c r="E3" s="22"/>
-      <x:c r="F3" s="23"/>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B3" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="17"/>
+      <x:c r="D3" s="17"/>
+      <x:c r="E3" s="17"/>
+      <x:c r="F3" s="18"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -1801,16 +1788,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>70</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="9"/>
     </x:row>
@@ -1819,165 +1806,113 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C7" s="5" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F7" s="9"/>
     </x:row>
-    <x:row r="8" spans="1:6" ht="19.5" customHeight="1">
-      <x:c r="A8" s="7"/>
-      <x:c r="B8" s="8"/>
-      <x:c r="C8" s="8"/>
-      <x:c r="D8" s="10"/>
-      <x:c r="E8" s="7"/>
-      <x:c r="F8" s="9"/>
-    </x:row>
-    <x:row r="9" spans="1:6" ht="19.5" customHeight="1">
-      <x:c r="A9" s="7"/>
-      <x:c r="B9" s="8"/>
-      <x:c r="C9" s="8"/>
-      <x:c r="D9" s="10"/>
-      <x:c r="E9" s="7"/>
-      <x:c r="F9" s="8"/>
-    </x:row>
-    <x:row r="10" spans="1:6" ht="153" customHeight="1">
-      <x:c r="A10" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B10" s="24" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C10" s="22"/>
-      <x:c r="D10" s="22"/>
-      <x:c r="E10" s="22"/>
-      <x:c r="F10" s="23"/>
-    </x:row>
-    <x:row r="12" spans="1:1">
-      <x:c r="A12" s="1" t="s">
+    <x:row r="8" spans="1:6" ht="153" customHeight="1">
+      <x:c r="A8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B8" s="19" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C8" s="17"/>
+      <x:c r="D8" s="17"/>
+      <x:c r="E8" s="17"/>
+      <x:c r="F8" s="18"/>
+    </x:row>
+    <x:row r="10" spans="1:1" ht="24.75" customHeight="1">
+      <x:c r="A10" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6" ht="22.5" customHeight="1">
+      <x:c r="A11" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6" ht="20.25" customHeight="1">
+      <x:c r="A12" s="4">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B12" s="5" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C12" s="5" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D12" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E12" s="6"/>
+      <x:c r="F12" s="3" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:6" ht="22.5" customHeight="1">
-      <x:c r="A13" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="F13" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A14" s="4">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B14" s="5" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C14" s="5" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D14" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E14" s="6" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F14" s="3" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A15" s="4">
+    <x:row r="13" spans="1:6" ht="20.25" customHeight="1">
+      <x:c r="A13" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B15" s="5" t="s">
+      <x:c r="B13" s="5" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C15" s="5" t="s">
+      <x:c r="C13" s="5" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D13" s="4" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D15" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E15" s="6" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F15" s="5" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A16" s="4"/>
-      <x:c r="B16" s="5"/>
-      <x:c r="C16" s="5"/>
-      <x:c r="D16" s="6"/>
-      <x:c r="E16" s="6"/>
-      <x:c r="F16" s="3"/>
-    </x:row>
-    <x:row r="17" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A17" s="4"/>
-      <x:c r="B17" s="5"/>
-      <x:c r="C17" s="5"/>
-      <x:c r="D17" s="6"/>
-      <x:c r="E17" s="6"/>
-      <x:c r="F17" s="3"/>
-    </x:row>
-    <x:row r="18" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A18" s="4"/>
-      <x:c r="B18" s="5"/>
-      <x:c r="C18" s="5"/>
-      <x:c r="D18" s="4"/>
-      <x:c r="E18" s="6"/>
-      <x:c r="F18" s="3"/>
-    </x:row>
-    <x:row r="19" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A19" s="4"/>
-      <x:c r="B19" s="5"/>
-      <x:c r="C19" s="5"/>
-      <x:c r="D19" s="4"/>
-      <x:c r="E19" s="6"/>
-      <x:c r="F19" s="3"/>
-    </x:row>
-    <x:row r="20" spans="1:6" ht="126.75" customHeight="1">
-      <x:c r="A20" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B20" s="24" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C20" s="25"/>
-      <x:c r="D20" s="25"/>
-      <x:c r="E20" s="25"/>
-      <x:c r="F20" s="26"/>
+      <x:c r="E13" s="6"/>
+      <x:c r="F13" s="5" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6" ht="126.75" customHeight="1">
+      <x:c r="A14" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B14" s="19" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C14" s="20"/>
+      <x:c r="D14" s="20"/>
+      <x:c r="E14" s="20"/>
+      <x:c r="F14" s="21"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
     <x:mergeCell ref="D2:F2"/>
     <x:mergeCell ref="B1:F1"/>
     <x:mergeCell ref="B3:F3"/>
-    <x:mergeCell ref="B10:F10"/>
-    <x:mergeCell ref="B20:F20"/>
+    <x:mergeCell ref="B8:F8"/>
+    <x:mergeCell ref="B14:F14"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1985,10 +1920,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet3"/>
-  <x:dimension ref="A1:F20"/>
+  <x:dimension ref="A1:F21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A13" zoomScale="65" zoomScaleNormal="97" workbookViewId="0">
-      <x:selection activeCell="J20" activeCellId="0" sqref="J20:J20"/>
+    <x:sheetView topLeftCell="A7" zoomScale="65" zoomScaleNormal="97" workbookViewId="0">
+      <x:selection activeCell="B15" activeCellId="0" sqref="B15:F15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -2002,67 +1937,67 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="23.25" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B1" s="19" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C1" s="20"/>
-      <x:c r="D1" s="20"/>
-      <x:c r="E1" s="20"/>
-      <x:c r="F1" s="20"/>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B1" s="14" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C1" s="15"/>
+      <x:c r="D1" s="15"/>
+      <x:c r="E1" s="15"/>
+      <x:c r="F1" s="15"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D2" s="19" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E2" s="20"/>
-      <x:c r="F2" s="20"/>
+      <x:c r="D2" s="14" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="15"/>
+      <x:c r="F2" s="15"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B3" s="21" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C3" s="22"/>
-      <x:c r="D3" s="22"/>
-      <x:c r="E3" s="22"/>
-      <x:c r="F3" s="23"/>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B3" s="16" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C3" s="17"/>
+      <x:c r="D3" s="17"/>
+      <x:c r="E3" s="17"/>
+      <x:c r="F3" s="18"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -2099,37 +2034,37 @@
     </x:row>
     <x:row r="10" spans="1:6" ht="153" customHeight="1">
       <x:c r="A10" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B10" s="24"/>
-      <x:c r="C10" s="22"/>
-      <x:c r="D10" s="22"/>
-      <x:c r="E10" s="22"/>
-      <x:c r="F10" s="23"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B10" s="19"/>
+      <x:c r="C10" s="17"/>
+      <x:c r="D10" s="17"/>
+      <x:c r="E10" s="17"/>
+      <x:c r="F10" s="18"/>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" ht="22.5" customHeight="1">
       <x:c r="A13" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" ht="20.25" customHeight="1">
@@ -2137,39 +2072,35 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B14" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D14" s="6" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="E14" s="6" t="s">
-        <x:v>43</x:v>
-      </x:c>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D14" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E14" s="6"/>
       <x:c r="F14" s="3" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6" ht="20.25" customHeight="1">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A15" s="4">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D15" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E15" s="6" t="s">
-        <x:v>43</x:v>
-      </x:c>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D15" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E15" s="6"/>
       <x:c r="F15" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6" ht="20.25" customHeight="1">
@@ -2177,19 +2108,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E16" s="6" t="s">
-        <x:v>43</x:v>
-      </x:c>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E16" s="6"/>
       <x:c r="F16" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6" ht="20.25" customHeight="1">
@@ -2197,19 +2126,17 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B17" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D17" s="6" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E17" s="6" t="s">
-        <x:v>43</x:v>
-      </x:c>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E17" s="6"/>
       <x:c r="F17" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6" ht="20.25" customHeight="1">
@@ -2217,19 +2144,17 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B18" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C18" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D18" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E18" s="6" t="s">
-        <x:v>43</x:v>
-      </x:c>
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E18" s="6"/>
       <x:c r="F18" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6" ht="20.25" customHeight="1">
@@ -2237,32 +2162,48 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B19" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C19" s="5" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D19" s="6" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E19" s="6"/>
+      <x:c r="F19" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6" ht="20.25" customHeight="1">
+      <x:c r="A20" s="4">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B20" s="5" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="5" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D19" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E19" s="6" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F19" s="5" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:6" ht="315" customHeight="1">
-      <x:c r="A20" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B20" s="24" t="s">
+      <x:c r="D20" s="6" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E20" s="6"/>
+      <x:c r="F20" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6" ht="315" customHeight="1">
+      <x:c r="A21" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C20" s="25"/>
-      <x:c r="D20" s="25"/>
-      <x:c r="E20" s="25"/>
-      <x:c r="F20" s="26"/>
+      <x:c r="B21" s="19" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C21" s="20"/>
+      <x:c r="D21" s="20"/>
+      <x:c r="E21" s="20"/>
+      <x:c r="F21" s="21"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -2270,9 +2211,9 @@
     <x:mergeCell ref="D2:F2"/>
     <x:mergeCell ref="B3:F3"/>
     <x:mergeCell ref="B10:F10"/>
-    <x:mergeCell ref="B20:F20"/>
+    <x:mergeCell ref="B21:F21"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2280,10 +2221,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet4"/>
-  <x:dimension ref="A1:F20"/>
+  <x:dimension ref="A1:F19"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <x:selection activeCell="F16" activeCellId="0" sqref="F16:F16"/>
+    <x:sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <x:selection activeCell="D37" activeCellId="0" sqref="D37:D37"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -2297,67 +2238,67 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="23.25" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B1" s="19" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" s="20"/>
-      <x:c r="D1" s="20"/>
-      <x:c r="E1" s="20"/>
-      <x:c r="F1" s="20"/>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B1" s="14" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C1" s="15"/>
+      <x:c r="D1" s="15"/>
+      <x:c r="E1" s="15"/>
+      <x:c r="F1" s="15"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D2" s="19" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E2" s="20"/>
-      <x:c r="F2" s="20"/>
+      <x:c r="D2" s="14" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="15"/>
+      <x:c r="F2" s="15"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B3" s="21" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="22"/>
-      <x:c r="D3" s="22"/>
-      <x:c r="E3" s="22"/>
-      <x:c r="F3" s="23"/>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B3" s="16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="17"/>
+      <x:c r="D3" s="17"/>
+      <x:c r="E3" s="17"/>
+      <x:c r="F3" s="18"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -2394,37 +2335,37 @@
     </x:row>
     <x:row r="10" spans="1:6" ht="153" customHeight="1">
       <x:c r="A10" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B10" s="24"/>
-      <x:c r="C10" s="22"/>
-      <x:c r="D10" s="22"/>
-      <x:c r="E10" s="22"/>
-      <x:c r="F10" s="23"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B10" s="19"/>
+      <x:c r="C10" s="17"/>
+      <x:c r="D10" s="17"/>
+      <x:c r="E10" s="17"/>
+      <x:c r="F10" s="18"/>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" ht="22.5" customHeight="1">
       <x:c r="A13" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" ht="20.25" customHeight="1">
@@ -2432,39 +2373,35 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E14" s="6" t="s">
-        <x:v>33</x:v>
-      </x:c>
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E14" s="6"/>
       <x:c r="F14" s="3" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6" ht="20.25" customHeight="1">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6" customFormat="1" ht="20.25" customHeight="1">
       <x:c r="A15" s="4">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D15" s="6" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E15" s="6" t="s">
-        <x:v>33</x:v>
-      </x:c>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D15" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E15" s="6"/>
       <x:c r="F15" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6" ht="20.25" customHeight="1">
@@ -2472,19 +2409,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D16" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E16" s="6" t="s">
-        <x:v>33</x:v>
-      </x:c>
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D16" s="6" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E16" s="6"/>
       <x:c r="F16" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6" ht="20.25" customHeight="1">
@@ -2492,48 +2427,48 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B17" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D17" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E17" s="6"/>
+      <x:c r="F17" s="5" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6" ht="20.25" customHeight="1">
+      <x:c r="A18" s="4">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B18" s="5" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C18" s="5" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D17" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E17" s="6" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F17" s="5" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A18" s="4"/>
-      <x:c r="B18" s="5"/>
-      <x:c r="C18" s="5"/>
-      <x:c r="D18" s="4"/>
+      <x:c r="D18" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
       <x:c r="E18" s="6"/>
-      <x:c r="F18" s="5"/>
-    </x:row>
-    <x:row r="19" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A19" s="4"/>
-      <x:c r="B19" s="12"/>
-      <x:c r="C19" s="13"/>
-      <x:c r="D19" s="14"/>
-      <x:c r="E19" s="15"/>
-      <x:c r="F19" s="16"/>
-    </x:row>
-    <x:row r="20" spans="1:6" ht="187.5" customHeight="1">
-      <x:c r="A20" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B20" s="24" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C20" s="25"/>
-      <x:c r="D20" s="25"/>
-      <x:c r="E20" s="25"/>
-      <x:c r="F20" s="26"/>
+      <x:c r="F18" s="5" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6" ht="187.5" customHeight="1">
+      <x:c r="A19" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B19" s="19" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C19" s="20"/>
+      <x:c r="D19" s="20"/>
+      <x:c r="E19" s="20"/>
+      <x:c r="F19" s="21"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -2541,9 +2476,9 @@
     <x:mergeCell ref="D2:F2"/>
     <x:mergeCell ref="B3:F3"/>
     <x:mergeCell ref="B10:F10"/>
-    <x:mergeCell ref="B20:F20"/>
+    <x:mergeCell ref="B19:F19"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2551,10 +2486,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet5"/>
-  <x:dimension ref="A1:F20"/>
+  <x:dimension ref="A1:F16"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <x:selection activeCell="D27" activeCellId="0" sqref="D27:D27"/>
+    <x:sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <x:selection activeCell="D19" activeCellId="0" sqref="D19:D19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -2568,67 +2503,67 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="23.25" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B1" s="19" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C1" s="20"/>
-      <x:c r="D1" s="20"/>
-      <x:c r="E1" s="20"/>
-      <x:c r="F1" s="20"/>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B1" s="14" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C1" s="15"/>
+      <x:c r="D1" s="15"/>
+      <x:c r="E1" s="15"/>
+      <x:c r="F1" s="15"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D2" s="19" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E2" s="20"/>
-      <x:c r="F2" s="20"/>
+      <x:c r="D2" s="14" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="15"/>
+      <x:c r="F2" s="15"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B3" s="21" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C3" s="22"/>
-      <x:c r="D3" s="22"/>
-      <x:c r="E3" s="22"/>
-      <x:c r="F3" s="23"/>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B3" s="16" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="17"/>
+      <x:c r="D3" s="17"/>
+      <x:c r="E3" s="17"/>
+      <x:c r="F3" s="18"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -2665,37 +2600,37 @@
     </x:row>
     <x:row r="10" spans="1:6" ht="153" customHeight="1">
       <x:c r="A10" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B10" s="24"/>
-      <x:c r="C10" s="22"/>
-      <x:c r="D10" s="22"/>
-      <x:c r="E10" s="22"/>
-      <x:c r="F10" s="23"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B10" s="19"/>
+      <x:c r="C10" s="17"/>
+      <x:c r="D10" s="17"/>
+      <x:c r="E10" s="17"/>
+      <x:c r="F10" s="18"/>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" ht="22.5" customHeight="1">
       <x:c r="A13" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" ht="20.25" customHeight="1">
@@ -2703,72 +2638,48 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E14" s="6" t="s">
-        <x:v>33</x:v>
-      </x:c>
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E14" s="6"/>
       <x:c r="F14" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A15" s="4"/>
-      <x:c r="B15" s="5"/>
-      <x:c r="C15" s="5"/>
-      <x:c r="D15" s="6"/>
+      <x:c r="A15" s="4">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B15" s="5" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C15" s="5" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D15" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
       <x:c r="E15" s="6"/>
-      <x:c r="F15" s="3"/>
-    </x:row>
-    <x:row r="16" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A16" s="4"/>
-      <x:c r="B16" s="3"/>
-      <x:c r="C16" s="3"/>
-      <x:c r="D16" s="4"/>
-      <x:c r="E16" s="3"/>
-      <x:c r="F16" s="3"/>
-    </x:row>
-    <x:row r="17" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A17" s="4"/>
-      <x:c r="B17" s="3"/>
-      <x:c r="C17" s="3"/>
-      <x:c r="D17" s="4"/>
-      <x:c r="E17" s="3"/>
-      <x:c r="F17" s="3"/>
-    </x:row>
-    <x:row r="18" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A18" s="4"/>
-      <x:c r="B18" s="3"/>
-      <x:c r="C18" s="3"/>
-      <x:c r="D18" s="4"/>
-      <x:c r="E18" s="3"/>
-      <x:c r="F18" s="3"/>
-    </x:row>
-    <x:row r="19" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A19" s="4"/>
-      <x:c r="B19" s="3"/>
-      <x:c r="C19" s="3"/>
-      <x:c r="D19" s="4"/>
-      <x:c r="E19" s="3"/>
-      <x:c r="F19" s="3"/>
-    </x:row>
-    <x:row r="20" spans="1:6" ht="105" customHeight="1">
-      <x:c r="A20" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B20" s="24" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C20" s="25"/>
-      <x:c r="D20" s="25"/>
-      <x:c r="E20" s="25"/>
-      <x:c r="F20" s="26"/>
+      <x:c r="F15" s="5" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6" ht="105" customHeight="1">
+      <x:c r="A16" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B16" s="19" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C16" s="20"/>
+      <x:c r="D16" s="20"/>
+      <x:c r="E16" s="20"/>
+      <x:c r="F16" s="21"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -2776,9 +2687,9 @@
     <x:mergeCell ref="D2:F2"/>
     <x:mergeCell ref="B3:F3"/>
     <x:mergeCell ref="B10:F10"/>
-    <x:mergeCell ref="B20:F20"/>
+    <x:mergeCell ref="B16:F16"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -2786,10 +2697,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet6"/>
-  <x:dimension ref="A1:F20"/>
+  <x:dimension ref="A1:F14"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="B10" activeCellId="0" sqref="B10:F10"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="J12" activeCellId="0" sqref="J12:J12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -2803,67 +2714,67 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" ht="23.25" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B1" s="19" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C1" s="20"/>
-      <x:c r="D1" s="20"/>
-      <x:c r="E1" s="20"/>
-      <x:c r="F1" s="20"/>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B1" s="14" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C1" s="15"/>
+      <x:c r="D1" s="15"/>
+      <x:c r="E1" s="15"/>
+      <x:c r="F1" s="15"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D2" s="19" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E2" s="20"/>
-      <x:c r="F2" s="20"/>
+      <x:c r="D2" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="15"/>
+      <x:c r="F2" s="15"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B3" s="21" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C3" s="22"/>
-      <x:c r="D3" s="22"/>
-      <x:c r="E3" s="22"/>
-      <x:c r="F3" s="23"/>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B3" s="16" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="17"/>
+      <x:c r="D3" s="17"/>
+      <x:c r="E3" s="17"/>
+      <x:c r="F3" s="18"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -2871,16 +2782,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>70</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C6" s="8" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="9"/>
     </x:row>
@@ -2889,153 +2800,113 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C7" s="8" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="D7" s="10" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F7" s="9"/>
     </x:row>
-    <x:row r="8" spans="1:6" ht="19.5" customHeight="1">
-      <x:c r="A8" s="7"/>
-      <x:c r="B8" s="8"/>
-      <x:c r="C8" s="8"/>
-      <x:c r="D8" s="10"/>
-      <x:c r="E8" s="7"/>
-      <x:c r="F8" s="9"/>
-    </x:row>
-    <x:row r="9" spans="1:6" ht="19.5" customHeight="1">
-      <x:c r="A9" s="7"/>
-      <x:c r="B9" s="8"/>
-      <x:c r="C9" s="8"/>
-      <x:c r="D9" s="10"/>
-      <x:c r="E9" s="7"/>
-      <x:c r="F9" s="8"/>
-    </x:row>
-    <x:row r="10" spans="1:6" ht="153" customHeight="1">
-      <x:c r="A10" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B10" s="24" t="s">
+    <x:row r="8" spans="1:6" ht="153" customHeight="1">
+      <x:c r="A8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B8" s="19" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C10" s="22"/>
-      <x:c r="D10" s="22"/>
-      <x:c r="E10" s="22"/>
-      <x:c r="F10" s="23"/>
-    </x:row>
-    <x:row r="12" spans="1:1">
-      <x:c r="A12" s="1" t="s">
+      <x:c r="C8" s="17"/>
+      <x:c r="D8" s="17"/>
+      <x:c r="E8" s="17"/>
+      <x:c r="F8" s="18"/>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6" ht="22.5" customHeight="1">
+      <x:c r="A11" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6" ht="20.25" customHeight="1">
+      <x:c r="A12" s="4">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B12" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D12" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E12" s="6"/>
+      <x:c r="F12" s="3" t="s">
         <x:v>47</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:6" ht="22.5" customHeight="1">
-      <x:c r="A13" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="F13" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A14" s="4">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B14" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C14" s="3" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="D14" s="4" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E14" s="6" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F14" s="3" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A15" s="4"/>
-      <x:c r="B15" s="5"/>
-      <x:c r="C15" s="5"/>
-      <x:c r="D15" s="6"/>
-      <x:c r="E15" s="6"/>
-      <x:c r="F15" s="3"/>
-    </x:row>
-    <x:row r="16" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A16" s="4"/>
-      <x:c r="B16" s="3"/>
-      <x:c r="C16" s="3"/>
-      <x:c r="D16" s="4"/>
-      <x:c r="E16" s="3"/>
-      <x:c r="F16" s="3"/>
-    </x:row>
-    <x:row r="17" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A17" s="4"/>
-      <x:c r="B17" s="3"/>
-      <x:c r="C17" s="3"/>
-      <x:c r="D17" s="4"/>
-      <x:c r="E17" s="3"/>
-      <x:c r="F17" s="3"/>
-    </x:row>
-    <x:row r="18" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A18" s="4"/>
-      <x:c r="B18" s="3"/>
-      <x:c r="C18" s="3"/>
-      <x:c r="D18" s="4"/>
-      <x:c r="E18" s="3"/>
-      <x:c r="F18" s="3"/>
-    </x:row>
-    <x:row r="19" spans="1:6" ht="20.25" customHeight="1">
-      <x:c r="A19" s="4"/>
-      <x:c r="B19" s="3"/>
-      <x:c r="C19" s="3"/>
-      <x:c r="D19" s="4"/>
-      <x:c r="E19" s="3"/>
-      <x:c r="F19" s="3"/>
-    </x:row>
-    <x:row r="20" spans="1:6" ht="105" customHeight="1">
-      <x:c r="A20" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B20" s="24" t="s">
+    <x:row r="13" spans="1:6" ht="20.25" customHeight="1">
+      <x:c r="A13" s="4">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B13" s="5" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C13" s="5" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D13" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E13" s="6"/>
+      <x:c r="F13" s="5" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6" ht="105" customHeight="1">
+      <x:c r="A14" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B14" s="19" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C20" s="25"/>
-      <x:c r="D20" s="25"/>
-      <x:c r="E20" s="25"/>
-      <x:c r="F20" s="26"/>
+      <x:c r="C14" s="20"/>
+      <x:c r="D14" s="20"/>
+      <x:c r="E14" s="20"/>
+      <x:c r="F14" s="21"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
     <x:mergeCell ref="B1:F1"/>
     <x:mergeCell ref="D2:F2"/>
     <x:mergeCell ref="B3:F3"/>
-    <x:mergeCell ref="B10:F10"/>
-    <x:mergeCell ref="B20:F20"/>
+    <x:mergeCell ref="B8:F8"/>
+    <x:mergeCell ref="B14:F14"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/7.통합구현/인터페이스명세서_황은지.xlsx
+++ b/7.통합구현/인터페이스명세서_황은지.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.5601"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="10080" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="10080" tabRatio="500" firstSheet="3" activeTab="4"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="인터페이스 목록" sheetId="1" r:id="rId4"/>
@@ -277,7 +277,7 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>성공시(200)
+    <x:t>성공시(201)
 응답 데이터 없음
 실패시(400)
 {
@@ -1705,8 +1705,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:F14"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="E12" activeCellId="0" sqref="E12:E13"/>
+    <x:sheetView topLeftCell="A7" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="I14" activeCellId="0" sqref="I14:I14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -1922,8 +1922,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:F21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A7" zoomScale="65" zoomScaleNormal="97" workbookViewId="0">
-      <x:selection activeCell="B15" activeCellId="0" sqref="B15:F15"/>
+    <x:sheetView topLeftCell="A13" zoomScale="65" zoomScaleNormal="97" workbookViewId="0">
+      <x:selection activeCell="D23" activeCellId="0" sqref="D23:D23"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -2223,8 +2223,8 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:F19"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <x:selection activeCell="D37" activeCellId="0" sqref="D37:D37"/>
+    <x:sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <x:selection activeCell="C23" activeCellId="0" sqref="C23:C23"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -2488,8 +2488,8 @@
   <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="A1:F16"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <x:selection activeCell="D19" activeCellId="0" sqref="D19:D19"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <x:selection activeCell="B16" activeCellId="0" sqref="B16:F16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -2699,7 +2699,7 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:F14"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
       <x:selection activeCell="J12" activeCellId="0" sqref="J12:J12"/>
     </x:sheetView>
   </x:sheetViews>

--- a/7.통합구현/인터페이스명세서_황은지.xlsx
+++ b/7.통합구현/인터페이스명세서_황은지.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="9.1" lowestEdited="9.1" rupBuild="1.5601"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="10080" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28200" windowHeight="10080" tabRatio="500" firstSheet="3" activeTab="5"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="인터페이스 목록" sheetId="1" r:id="rId4"/>
@@ -18,257 +18,257 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="78">
-  <x:si>
-    <x:t>성공시(201)
-응답 데이터 없음
-실패시(400)
-{ 
-  "errorMessage" : "등록되지 않은 게시글 입니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-  "subject" : "(수정)글제목",
-  "content" : "(수정)글내용"
-}</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="76">
   <x:si>
     <x:t>성공시(201)
 응답 데이터 없음
 실패시(400)
 { 
   "status" : "Bad_Request",
-  "errorMessage" : "게시글 등록에 실패했습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성공시(200)
-{
-  {
-    "regDt": "2023-06-07T20:57:33.267995",
-    "modDt": null,
-    "id": 202,
-    "subject": "글 제목",
-    "content": "글 내용"
-  },
-  {
-    "regDt": "2023-06-07T20:50:47.511417",
-    "modDt": null,
-    "id": 152,
-    "subject": "글 제목",
-    "content": "글 내용"
-  }
+  "errorMessage" : "제목을 입력하세요."
 }
 실패시(400)
+{ 
+  "status" : "Bad_Request",
+  "errorMessage" : "내용을 입력하세요."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/board/delete/{게시글번호}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/board/update/{게시글번호}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/board/write</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 삭제(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 목록(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 작성(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 수정(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 조회(접근권한 : 없음)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST / application/json</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET / application/json</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/board/get/{게시글번호}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+  "subject" : "(수정)글제목",
+  "content" : "(수정)글내용"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성공시(201)
+응답 데이터 없음
+실패시(400)
+{ 
+  "status": "BAD_REQUEST",
+  "errorMessage": "등록되지 않은 게시글 입니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>web</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>필수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>샘플</x:t>
+  </x:si>
+  <x:si>
+    <x:t>형태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOARD-WEB-001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOARD-WEB-003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOARD-WEB-004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/board/list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LocalDateTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>errorMessage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOARD-WEB-005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성공시(201)
 {
-  "status" : "Bad_Request", 
-  "errorMessage" : "조회에 실패했습니다."
+  "regDt": "2023-06-09T14:20:42.873965",
+  "modDt": null,
+  "id": 353,
+  "subject": "제목",
+  "content": "내용용"
+}
+실패시(400)
+{ 
+  "status" : "Bad_Request",
+  "errorMessage" : "게시글 조회에 실패했습니다."
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>/api/board/update/{게시글번호}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/board/delete/{게시글번호}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 목록(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 조회(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/board/write</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 삭제(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 작성(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 수정(접근권한 : 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET / application/json</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/board/get/{게시글번호}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST / application/json</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>web</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>O</x:t>
-  </x:si>
-  <x:si>
-    <x:t>설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>필수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>샘플</x:t>
-  </x:si>
-  <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>형태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOARD-WEB-001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOARD-WEB-003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOARD-WEB-004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LocalDateTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/board/list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BOARD-WEB-005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>errorMessage</x:t>
+    <x:t>&lt;REQUEST&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인터페이스 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회 성공일 경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;RESPONSE&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회 실패 에러메세지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오류일경우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전송방식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에러메시지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>modDt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답상태메시지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요청 URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에러메세지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회 성공 시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>content</x:t>
   </x:si>
   <x:si>
     <x:t>게시글 조회</x:t>
   </x:si>
   <x:si>
+    <x:t>회원인증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 제목</x:t>
+  </x:si>
+  <x:si>
     <x:t>게시글 삭제</x:t>
   </x:si>
   <x:si>
-    <x:t>인터페이스 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회 실패 에러메세지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;RESPONSE&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;REQUEST&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회 성공일 경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;REQUEST&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오류일경우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에러메세지</x:t>
-  </x:si>
-  <x:si>
     <x:t>regDt</x:t>
   </x:si>
   <x:si>
-    <x:t>전송방식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답상태메시지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에러메시지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>modDt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요청 URL</x:t>
-  </x:si>
-  <x:si>
     <x:t>게시글 내용</x:t>
   </x:si>
   <x:si>
-    <x:t>게시글 번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회 성공 시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>subject</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원인증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 제목</x:t>
-  </x:si>
-  <x:si>
     <x:t>Long</x:t>
   </x:si>
   <x:si>
     <x:t>status</x:t>
   </x:si>
   <x:si>
+    <x:t>수정일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>접근권한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 목록</x:t>
+  </x:si>
+  <x:si>
     <x:t>METHOD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>접근권한</x:t>
   </x:si>
   <x:si>
     <x:t>{
@@ -286,28 +286,35 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>성공시(200)
+    <x:t>성공시(201)
+[
+  {
+    "regDt": "2023-06-09T14:18:25.403378",
+    "modDt": null,
+    "id": 352,
+    "subject": "제목목",
+    "content": "내용"
+  },
+  {
+    "regDt": "2023-06-09T11:36:51.283368",
+    "modDt": null,
+    "id": 302,
+    "subject": "제목목",
+    "content": "내용"
+  },
+  {
+    "regDt": "2023-06-08T23:34:19.465748",
+    "modDt": null,
+    "id": 252,
+    "subject": "제목목",
+    "content": "내용"
+  }
+]
+실패시(400)
 {
-    "regDt": "2023-06-07T20:57:33.267995",
-    "modDt": null,
-    "id": 202,
-    "subject": "글 제목",
-    "content": "글 내용"
-}
-실패시(400)
-{ 
-  "status" : "Bad_Request",
-  "errorMessage" : "게시글 조회에 실패했습니다.."
+  "status" : "Bad_Request", 
+  "errorMessage" : "조회에 실패했습니다."
 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>errorMessage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 작성</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -393,13 +400,41 @@
       <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom>
+      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -410,10 +445,10 @@
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -421,41 +456,13 @@
       <x:left style="thin">
         <x:color indexed="64"/>
       </x:left>
-      <x:right>
+      <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
+      <x:bottom>
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -466,10 +473,10 @@
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color indexed="64"/>
       </x:top>
-      <x:bottom>
+      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -521,7 +528,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="25">
+  <x:cellXfs count="24">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -628,32 +635,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
@@ -670,8 +651,43 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
@@ -699,15 +715,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -723,26 +730,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -781,7 +775,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -802,7 +795,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -823,7 +815,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -854,7 +845,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -885,7 +875,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -939,7 +928,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -974,7 +962,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1009,7 +996,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1054,7 +1040,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1098,7 +1083,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1448,7 +1432,7 @@
   <x:dimension ref="A1:H16"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScale="90" zoomScaleNormal="135" workbookViewId="0">
-      <x:selection activeCell="D9" activeCellId="0" sqref="D9:D9"/>
+      <x:selection activeCell="D17" activeCellId="0" sqref="D17:D17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -1462,7 +1446,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
         <x:v>15</x:v>
@@ -1471,224 +1455,234 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D1" s="11" t="s">
-        <x:v>59</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E1" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F1" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G1" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H1" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" customHeight="1">
       <x:c r="A2" s="4">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="22" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C2" s="22" t="s">
-        <x:v>16</x:v>
+      <x:c r="B2" s="20" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C2" s="13" t="s">
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D2" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E2" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F2" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G2" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H2" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="4">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="23"/>
-      <x:c r="C3" s="22"/>
+      <x:c r="B3" s="21"/>
+      <x:c r="C3" s="13"/>
       <x:c r="D3" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E3" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F3" s="5" t="s">
-        <x:v>76</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G3" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H3" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B4" s="23"/>
-      <x:c r="C4" s="22"/>
+      <x:c r="B4" s="21"/>
+      <x:c r="C4" s="13"/>
       <x:c r="D4" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F4" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G4" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H4" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="4">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B5" s="23"/>
-      <x:c r="C5" s="22"/>
+      <x:c r="B5" s="21"/>
+      <x:c r="C5" s="13"/>
       <x:c r="D5" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E5" s="6" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F5" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G5" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H5" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="4">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B6" s="24"/>
-      <x:c r="C6" s="22"/>
+      <x:c r="B6" s="22"/>
+      <x:c r="C6" s="13"/>
       <x:c r="D6" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E6" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F6" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G6" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H6" s="6" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
       <x:c r="A7" s="4"/>
       <x:c r="B7" s="4"/>
-      <x:c r="C7" s="12"/>
+      <x:c r="C7" s="23"/>
       <x:c r="D7" s="3"/>
       <x:c r="E7" s="4"/>
       <x:c r="F7" s="3"/>
       <x:c r="G7" s="4"/>
-    </x:row>
-    <x:row r="8" spans="1:7">
+      <x:c r="H7" s="3"/>
+    </x:row>
+    <x:row r="8" spans="1:8">
       <x:c r="A8" s="4"/>
       <x:c r="B8" s="4"/>
-      <x:c r="C8" s="12"/>
+      <x:c r="C8" s="23"/>
       <x:c r="D8" s="3"/>
       <x:c r="E8" s="4"/>
       <x:c r="F8" s="3"/>
       <x:c r="G8" s="4"/>
-    </x:row>
-    <x:row r="9" spans="1:7">
+      <x:c r="H8" s="3"/>
+    </x:row>
+    <x:row r="9" spans="1:8">
       <x:c r="A9" s="4"/>
       <x:c r="B9" s="4"/>
-      <x:c r="C9" s="12"/>
+      <x:c r="C9" s="23"/>
       <x:c r="D9" s="3"/>
       <x:c r="E9" s="4"/>
       <x:c r="F9" s="3"/>
       <x:c r="G9" s="4"/>
-    </x:row>
-    <x:row r="10" spans="1:7">
+      <x:c r="H9" s="3"/>
+    </x:row>
+    <x:row r="10" spans="1:8">
       <x:c r="A10" s="4"/>
       <x:c r="B10" s="4"/>
-      <x:c r="C10" s="12"/>
+      <x:c r="C10" s="23"/>
       <x:c r="D10" s="3"/>
       <x:c r="E10" s="4"/>
       <x:c r="F10" s="3"/>
       <x:c r="G10" s="4"/>
-    </x:row>
-    <x:row r="11" spans="1:7">
+      <x:c r="H10" s="3"/>
+    </x:row>
+    <x:row r="11" spans="1:8">
       <x:c r="A11" s="4"/>
       <x:c r="B11" s="4"/>
-      <x:c r="C11" s="12"/>
+      <x:c r="C11" s="23"/>
       <x:c r="D11" s="3"/>
       <x:c r="E11" s="4"/>
       <x:c r="F11" s="3"/>
       <x:c r="G11" s="4"/>
-    </x:row>
-    <x:row r="12" spans="1:7">
+      <x:c r="H11" s="3"/>
+    </x:row>
+    <x:row r="12" spans="1:8">
       <x:c r="A12" s="4"/>
       <x:c r="B12" s="4"/>
-      <x:c r="C12" s="12"/>
+      <x:c r="C12" s="23"/>
       <x:c r="D12" s="3"/>
       <x:c r="E12" s="4"/>
       <x:c r="F12" s="3"/>
       <x:c r="G12" s="4"/>
-    </x:row>
-    <x:row r="13" spans="1:7">
+      <x:c r="H12" s="3"/>
+    </x:row>
+    <x:row r="13" spans="1:8">
       <x:c r="A13" s="4"/>
       <x:c r="B13" s="4"/>
-      <x:c r="C13" s="12"/>
+      <x:c r="C13" s="23"/>
       <x:c r="D13" s="3"/>
       <x:c r="E13" s="4"/>
       <x:c r="F13" s="3"/>
       <x:c r="G13" s="4"/>
-    </x:row>
-    <x:row r="14" spans="1:7">
+      <x:c r="H13" s="3"/>
+    </x:row>
+    <x:row r="14" spans="1:8">
       <x:c r="A14" s="4"/>
       <x:c r="B14" s="4"/>
-      <x:c r="C14" s="12"/>
+      <x:c r="C14" s="23"/>
       <x:c r="D14" s="3"/>
       <x:c r="E14" s="4"/>
       <x:c r="F14" s="3"/>
       <x:c r="G14" s="4"/>
-    </x:row>
-    <x:row r="15" spans="1:7">
+      <x:c r="H14" s="3"/>
+    </x:row>
+    <x:row r="15" spans="1:8">
       <x:c r="A15" s="4"/>
       <x:c r="B15" s="4"/>
-      <x:c r="C15" s="12"/>
+      <x:c r="C15" s="23"/>
       <x:c r="D15" s="3"/>
       <x:c r="E15" s="4"/>
       <x:c r="F15" s="3"/>
       <x:c r="G15" s="4"/>
-    </x:row>
-    <x:row r="16" spans="1:7">
+      <x:c r="H15" s="3"/>
+    </x:row>
+    <x:row r="16" spans="1:8">
       <x:c r="A16" s="4"/>
       <x:c r="B16" s="4"/>
-      <x:c r="C16" s="13"/>
+      <x:c r="C16" s="23"/>
       <x:c r="D16" s="3"/>
       <x:c r="E16" s="4"/>
       <x:c r="F16" s="3"/>
       <x:c r="G16" s="4"/>
+      <x:c r="H16" s="3"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
@@ -1705,8 +1699,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:F14"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A7" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="I14" activeCellId="0" sqref="I14:I14"/>
+    <x:sheetView topLeftCell="A4" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="B8" activeCellId="0" sqref="B8:F8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -1722,65 +1716,65 @@
       <x:c r="A1" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B1" s="14" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C1" s="15"/>
-      <x:c r="D1" s="15"/>
-      <x:c r="E1" s="15"/>
-      <x:c r="F1" s="15"/>
+      <x:c r="B1" s="12" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C1" s="13"/>
+      <x:c r="D1" s="13"/>
+      <x:c r="E1" s="13"/>
+      <x:c r="F1" s="13"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D2" s="14" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="15"/>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D2" s="12" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B3" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="17"/>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="17"/>
-      <x:c r="F3" s="18"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B3" s="14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C3" s="15"/>
+      <x:c r="D3" s="15"/>
+      <x:c r="E3" s="15"/>
+      <x:c r="F3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -1788,16 +1782,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>64</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C6" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F6" s="9"/>
     </x:row>
@@ -1806,16 +1800,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C7" s="5" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D7" s="10" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="C7" s="5" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D7" s="10" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="9"/>
     </x:row>
@@ -1823,37 +1817,37 @@
       <x:c r="A8" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B8" s="19" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="C8" s="17"/>
-      <x:c r="D8" s="17"/>
-      <x:c r="E8" s="17"/>
-      <x:c r="F8" s="18"/>
+      <x:c r="B8" s="17" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C8" s="15"/>
+      <x:c r="D8" s="15"/>
+      <x:c r="E8" s="15"/>
+      <x:c r="F8" s="16"/>
     </x:row>
     <x:row r="10" spans="1:1" ht="24.75" customHeight="1">
       <x:c r="A10" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" ht="22.5" customHeight="1">
       <x:c r="A11" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6" ht="20.25" customHeight="1">
@@ -1861,17 +1855,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B12" s="5" t="s">
-        <x:v>75</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E12" s="6"/>
       <x:c r="F12" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" ht="20.25" customHeight="1">
@@ -1879,30 +1873,30 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B13" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E13" s="6"/>
       <x:c r="F13" s="5" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6" ht="126.75" customHeight="1">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6" ht="189.75" customHeight="1">
       <x:c r="A14" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B14" s="19" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C14" s="20"/>
-      <x:c r="D14" s="20"/>
-      <x:c r="E14" s="20"/>
-      <x:c r="F14" s="21"/>
+      <x:c r="B14" s="17" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C14" s="18"/>
+      <x:c r="D14" s="18"/>
+      <x:c r="E14" s="18"/>
+      <x:c r="F14" s="19"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -1922,8 +1916,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:F21"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A13" zoomScale="65" zoomScaleNormal="97" workbookViewId="0">
-      <x:selection activeCell="D23" activeCellId="0" sqref="D23:D23"/>
+    <x:sheetView topLeftCell="A25" zoomScale="65" zoomScaleNormal="97" workbookViewId="0">
+      <x:selection activeCell="B21" activeCellId="0" sqref="B21:F21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -1939,65 +1933,65 @@
       <x:c r="A1" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B1" s="14" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C1" s="15"/>
-      <x:c r="D1" s="15"/>
-      <x:c r="E1" s="15"/>
-      <x:c r="F1" s="15"/>
+      <x:c r="B1" s="12" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C1" s="13"/>
+      <x:c r="D1" s="13"/>
+      <x:c r="E1" s="13"/>
+      <x:c r="F1" s="13"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D2" s="14" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="15"/>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D2" s="12" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B3" s="16" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C3" s="17"/>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="17"/>
-      <x:c r="F3" s="18"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B3" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="15"/>
+      <x:c r="D3" s="15"/>
+      <x:c r="E3" s="15"/>
+      <x:c r="F3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -2036,35 +2030,35 @@
       <x:c r="A10" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B10" s="19"/>
-      <x:c r="C10" s="17"/>
-      <x:c r="D10" s="17"/>
-      <x:c r="E10" s="17"/>
-      <x:c r="F10" s="18"/>
+      <x:c r="B10" s="17"/>
+      <x:c r="C10" s="15"/>
+      <x:c r="D10" s="15"/>
+      <x:c r="E10" s="15"/>
+      <x:c r="F10" s="16"/>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" ht="22.5" customHeight="1">
       <x:c r="A13" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" ht="20.25" customHeight="1">
@@ -2072,17 +2066,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B14" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>53</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E14" s="6"/>
       <x:c r="F14" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6" customFormat="1" ht="20.25" customHeight="1">
@@ -2090,17 +2084,17 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E15" s="6"/>
       <x:c r="F15" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6" ht="20.25" customHeight="1">
@@ -2108,17 +2102,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="E16" s="6"/>
       <x:c r="F16" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6" ht="20.25" customHeight="1">
@@ -2126,17 +2120,17 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B17" s="5" t="s">
-        <x:v>54</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D17" s="6" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="E17" s="6"/>
       <x:c r="F17" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6" ht="20.25" customHeight="1">
@@ -2144,17 +2138,17 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B18" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="5" t="s">
-        <x:v>61</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E18" s="6"/>
       <x:c r="F18" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6" ht="20.25" customHeight="1">
@@ -2162,17 +2156,17 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B19" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C19" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D19" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="6"/>
       <x:c r="F19" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6" ht="20.25" customHeight="1">
@@ -2180,30 +2174,30 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B20" s="5" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="5" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D20" s="6" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="C20" s="5" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="6" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="E20" s="6"/>
       <x:c r="F20" s="5" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:6" ht="315" customHeight="1">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6" ht="408.75" customHeight="1">
       <x:c r="A21" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B21" s="19" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C21" s="20"/>
-      <x:c r="D21" s="20"/>
-      <x:c r="E21" s="20"/>
-      <x:c r="F21" s="21"/>
+      <x:c r="B21" s="17" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C21" s="18"/>
+      <x:c r="D21" s="18"/>
+      <x:c r="E21" s="18"/>
+      <x:c r="F21" s="19"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -2223,8 +2217,8 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:F19"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A16" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <x:selection activeCell="C23" activeCellId="0" sqref="C23:C23"/>
+    <x:sheetView topLeftCell="A13" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <x:selection activeCell="B19" activeCellId="0" sqref="B19:F19"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -2240,65 +2234,65 @@
       <x:c r="A1" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B1" s="14" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C1" s="15"/>
-      <x:c r="D1" s="15"/>
-      <x:c r="E1" s="15"/>
-      <x:c r="F1" s="15"/>
+      <x:c r="B1" s="12" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C1" s="13"/>
+      <x:c r="D1" s="13"/>
+      <x:c r="E1" s="13"/>
+      <x:c r="F1" s="13"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D2" s="14" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="15"/>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D2" s="12" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B3" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="17"/>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="17"/>
-      <x:c r="F3" s="18"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B3" s="14" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="15"/>
+      <x:c r="D3" s="15"/>
+      <x:c r="E3" s="15"/>
+      <x:c r="F3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -2337,35 +2331,35 @@
       <x:c r="A10" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B10" s="19"/>
-      <x:c r="C10" s="17"/>
-      <x:c r="D10" s="17"/>
-      <x:c r="E10" s="17"/>
-      <x:c r="F10" s="18"/>
+      <x:c r="B10" s="17"/>
+      <x:c r="C10" s="15"/>
+      <x:c r="D10" s="15"/>
+      <x:c r="E10" s="15"/>
+      <x:c r="F10" s="16"/>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" ht="22.5" customHeight="1">
       <x:c r="A13" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" ht="20.25" customHeight="1">
@@ -2373,17 +2367,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C14" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E14" s="6"/>
       <x:c r="F14" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6" customFormat="1" ht="20.25" customHeight="1">
@@ -2391,17 +2385,17 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E15" s="6"/>
       <x:c r="F15" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6" ht="20.25" customHeight="1">
@@ -2409,17 +2403,17 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B16" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>61</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E16" s="6"/>
       <x:c r="F16" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6" ht="20.25" customHeight="1">
@@ -2427,17 +2421,17 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B17" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C17" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D17" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E17" s="6"/>
       <x:c r="F17" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6" ht="20.25" customHeight="1">
@@ -2445,30 +2439,30 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B18" s="5" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C18" s="5" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D18" s="4" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="C18" s="5" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D18" s="4" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="E18" s="6"/>
       <x:c r="F18" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6" ht="187.5" customHeight="1">
       <x:c r="A19" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B19" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C19" s="20"/>
-      <x:c r="D19" s="20"/>
-      <x:c r="E19" s="20"/>
-      <x:c r="F19" s="21"/>
+      <x:c r="B19" s="17" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C19" s="18"/>
+      <x:c r="D19" s="18"/>
+      <x:c r="E19" s="18"/>
+      <x:c r="F19" s="19"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -2488,8 +2482,8 @@
   <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="A1:F16"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <x:selection activeCell="B16" activeCellId="0" sqref="B16:F16"/>
+    <x:sheetView topLeftCell="A1" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
+      <x:selection activeCell="F17" activeCellId="0" sqref="F17:F17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -2505,65 +2499,65 @@
       <x:c r="A1" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B1" s="14" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C1" s="15"/>
-      <x:c r="D1" s="15"/>
-      <x:c r="E1" s="15"/>
-      <x:c r="F1" s="15"/>
+      <x:c r="B1" s="12" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C1" s="13"/>
+      <x:c r="D1" s="13"/>
+      <x:c r="E1" s="13"/>
+      <x:c r="F1" s="13"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D2" s="14" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="15"/>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D2" s="12" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B3" s="16" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C3" s="17"/>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="17"/>
-      <x:c r="F3" s="18"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B3" s="14" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C3" s="15"/>
+      <x:c r="D3" s="15"/>
+      <x:c r="E3" s="15"/>
+      <x:c r="F3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -2602,35 +2596,35 @@
       <x:c r="A10" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B10" s="19"/>
-      <x:c r="C10" s="17"/>
-      <x:c r="D10" s="17"/>
-      <x:c r="E10" s="17"/>
-      <x:c r="F10" s="18"/>
+      <x:c r="B10" s="17"/>
+      <x:c r="C10" s="15"/>
+      <x:c r="D10" s="15"/>
+      <x:c r="E10" s="15"/>
+      <x:c r="F10" s="16"/>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" ht="22.5" customHeight="1">
       <x:c r="A13" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" ht="20.25" customHeight="1">
@@ -2638,17 +2632,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D14" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E14" s="6"/>
       <x:c r="F14" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6" ht="20.25" customHeight="1">
@@ -2656,30 +2650,30 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C15" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D15" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E15" s="6"/>
       <x:c r="F15" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6" ht="105" customHeight="1">
       <x:c r="A16" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B16" s="19" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C16" s="20"/>
-      <x:c r="D16" s="20"/>
-      <x:c r="E16" s="20"/>
-      <x:c r="F16" s="21"/>
+      <x:c r="B16" s="17" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C16" s="18"/>
+      <x:c r="D16" s="18"/>
+      <x:c r="E16" s="18"/>
+      <x:c r="F16" s="19"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
@@ -2699,8 +2693,8 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:F14"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="J12" activeCellId="0" sqref="J12:J12"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="B8" activeCellId="0" sqref="B8:F8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -2716,65 +2710,65 @@
       <x:c r="A1" s="2" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B1" s="14" t="s">
+      <x:c r="B1" s="12" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C1" s="15"/>
-      <x:c r="D1" s="15"/>
-      <x:c r="E1" s="15"/>
-      <x:c r="F1" s="15"/>
+      <x:c r="C1" s="13"/>
+      <x:c r="D1" s="13"/>
+      <x:c r="E1" s="13"/>
+      <x:c r="F1" s="13"/>
     </x:row>
     <x:row r="2" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A2" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B2" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D2" s="14" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E2" s="15"/>
-      <x:c r="F2" s="15"/>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D2" s="12" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="13"/>
+      <x:c r="F2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:6" ht="20.25" customHeight="1">
       <x:c r="A3" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B3" s="16" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="17"/>
-      <x:c r="D3" s="17"/>
-      <x:c r="E3" s="17"/>
-      <x:c r="F3" s="18"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B3" s="14" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="15"/>
+      <x:c r="D3" s="15"/>
+      <x:c r="E3" s="15"/>
+      <x:c r="F3" s="16"/>
     </x:row>
     <x:row r="4" spans="1:1" ht="30" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" ht="18.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" ht="19.5" customHeight="1">
@@ -2782,16 +2776,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>64</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C6" s="8" t="s">
-        <x:v>66</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D6" s="7" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E6" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F6" s="9"/>
     </x:row>
@@ -2800,16 +2794,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C7" s="8" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D7" s="10" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="C7" s="8" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D7" s="10" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="E7" s="7" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F7" s="9"/>
     </x:row>
@@ -2817,37 +2811,37 @@
       <x:c r="A8" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B8" s="19" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C8" s="17"/>
-      <x:c r="D8" s="17"/>
-      <x:c r="E8" s="17"/>
-      <x:c r="F8" s="18"/>
+      <x:c r="B8" s="17" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C8" s="15"/>
+      <x:c r="D8" s="15"/>
+      <x:c r="E8" s="15"/>
+      <x:c r="F8" s="16"/>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" ht="22.5" customHeight="1">
       <x:c r="A11" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6" ht="20.25" customHeight="1">
@@ -2855,17 +2849,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>75</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E12" s="6"/>
       <x:c r="F12" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6" ht="20.25" customHeight="1">
@@ -2873,30 +2867,30 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B13" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C13" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D13" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E13" s="6"/>
       <x:c r="F13" s="5" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6" ht="105" customHeight="1">
       <x:c r="A14" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B14" s="19" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C14" s="20"/>
-      <x:c r="D14" s="20"/>
-      <x:c r="E14" s="20"/>
-      <x:c r="F14" s="21"/>
+      <x:c r="B14" s="17" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C14" s="18"/>
+      <x:c r="D14" s="18"/>
+      <x:c r="E14" s="18"/>
+      <x:c r="F14" s="19"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="5">
